--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -588,6 +588,63 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,63 +664,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,39 +996,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1050,248 +1050,248 @@
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="20">
         <v>44508</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="20">
         <v>44512</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="21">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>5</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="25">
         <v>44515</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="25">
         <v>44519</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="14">
         <v>44516</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="25">
         <v>44522</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="25">
         <v>44526</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="14">
         <v>44525</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="25">
         <v>44529</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="25">
         <v>44533</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="14">
         <v>44533</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="25">
         <v>44536</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="25">
         <v>44540</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="25">
         <v>44543</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="25">
         <v>44547</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="12">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="14">
         <v>44543</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="25">
         <v>44550</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="25">
         <v>44553</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="12">
         <f>DAYS360(C11,E11)+1</f>
         <v>4</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="25">
         <v>44557</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="25">
         <v>44557</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="12">
         <f>DAYS360(C12,E12)+1</f>
         <v>1</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="14">
         <v>44557</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1304,30 +1304,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1339,7 +1339,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\MyGit\KITA-FED212\000.커리큐럼\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -273,13 +278,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,7 +769,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,13 +978,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -994,8 +1002,8 @@
     <col min="11" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="33" t="s">
         <v>41</v>
       </c>
@@ -1009,7 +1017,7 @@
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1020,7 +1028,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="27" t="s">
         <v>13</v>
@@ -1078,7 +1086,7 @@
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1117,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="57.75" customHeight="1">
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1148,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1">
+    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1179,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1">
+    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1208,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" customHeight="1">
+    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51" customHeight="1">
+    <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1270,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" customHeight="1">
+    <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4">
@@ -1303,7 +1311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1324,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>42</v>
       </c>
@@ -1339,7 +1347,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1349,7 +1357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1362,7 +1370,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -142,23 +142,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>취업세미나
-10/5(화)
-7,8교시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용 + Vue.js 가이드</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jQuery 기본 / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작품발표회
-10/27(수)
-7,8교시</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -274,6 +262,18 @@
 HTML 기초 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>취업세미나
+12/3(화)
+7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작품발표회
+12/27(수)
+7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +284,7 @@
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,11 +983,11 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1002,10 +1002,10 @@
     <col min="11" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -1017,7 +1017,7 @@
       <c r="J2" s="34"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1028,7 +1028,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="27" t="s">
         <v>13</v>
@@ -1079,14 +1079,14 @@
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1110,14 +1110,14 @@
         <v>44516</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="57.75" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1135,20 +1135,20 @@
         <v>5</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="14">
         <v>44525</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1172,14 +1172,16 @@
         <v>44533</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="51" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
@@ -1197,18 +1199,18 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="51" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1226,22 +1228,20 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="14">
         <v>44543</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="51" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
@@ -1259,18 +1259,18 @@
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="51" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -1288,22 +1288,22 @@
         <v>1</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="14">
         <v>44557</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4">
@@ -1311,7 +1311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1">
       <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
@@ -1324,9 +1324,9 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
       <c r="B15" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -1357,7 +1357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,7 +1370,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -373,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -562,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,9 +638,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,9 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,6 +669,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +1014,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1004,39 +1034,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1057,77 +1087,77 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="37">
         <v>44508</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="37">
         <v>44512</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="39">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>44515</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="20">
         <v>44519</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="34">
         <v>44516</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>44522</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>44526</v>
       </c>
       <c r="F7" s="12">
@@ -1152,20 +1182,20 @@
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>44529</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>44533</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="14">
@@ -1185,13 +1215,13 @@
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>44536</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>44540</v>
       </c>
       <c r="F9" s="12">
@@ -1214,13 +1244,13 @@
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>44543</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>44547</v>
       </c>
       <c r="F10" s="12">
@@ -1245,13 +1275,13 @@
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>44550</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>44553</v>
       </c>
       <c r="F11" s="12">
@@ -1274,20 +1304,20 @@
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>44557</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>44557</v>
       </c>
       <c r="F12" s="12">
         <f>DAYS360(C12,E12)+1</f>
         <v>1</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="14">
@@ -1312,30 +1342,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -264,13 +264,13 @@
   </si>
   <si>
     <t>취업세미나
-12/3(화)
+12/3(금)
 7,8교시</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>작품발표회
-12/27(수)
+12/27(월)
 7,8교시</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -650,6 +650,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,36 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,39 +1034,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1087,33 +1087,33 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="30">
         <v>44508</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="30">
         <v>44512</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="32">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>5</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
       <c r="A6" s="5"/>
@@ -1136,7 +1136,7 @@
       <c r="G6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="27">
         <v>44516</v>
       </c>
       <c r="I6" s="19" t="s">
@@ -1145,7 +1145,7 @@
       <c r="J6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
       <c r="B7" s="10" t="s">
@@ -1342,30 +1342,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\MyGit\KITA-FED212\000.커리큐럼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\KITA-FED212\000.커리큐럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -130,10 +131,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>포트폴리오 실기</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -254,10 +251,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -272,6 +265,16 @@
     <t>작품발표회
 12/27(월)
 7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+CGV PJ + 미디어쿼리 + 애니메이션</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,68 +641,74 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1013,8 +1022,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1034,39 +1043,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1077,151 +1086,151 @@
         <v>11</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>44508</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>44512</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="36"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="29">
         <v>44515</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="29">
         <v>44519</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="36">
         <v>44516</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="28"/>
+      <c r="I6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>44522</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>44526</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="26">
         <v>44525</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="15"/>
+      <c r="I7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>44529</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>44533</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="14">
         <v>44533</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>44536</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>44540</v>
       </c>
       <c r="F9" s="12">
@@ -1229,11 +1238,11 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>17</v>
@@ -1244,13 +1253,13 @@
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>44543</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>44547</v>
       </c>
       <c r="F10" s="12">
@@ -1258,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="14">
         <v>44543</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>16</v>
@@ -1275,13 +1284,13 @@
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>44550</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>44553</v>
       </c>
       <c r="F11" s="12">
@@ -1289,14 +1298,14 @@
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -1304,33 +1313,33 @@
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>44557</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>44557</v>
       </c>
       <c r="F12" s="12">
         <f>DAYS360(C12,E12)+1</f>
         <v>1</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>27</v>
+      <c r="G12" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="14">
         <v>44557</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1342,30 +1351,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -75,21 +74,6 @@
   </si>
   <si>
     <t>2주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본 / CSS 애니메이션, 
-미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-미디어쿼리 / XD 프로토타이핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-미디어쿼리 / XD 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -139,14 +123,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 + Vue.js 가이드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 기본 / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>자바스크립트 + 제이쿼리 실습 및 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -219,18 +195,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>메인구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>발표</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -275,6 +239,42 @@
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 CGV PJ + 미디어쿼리 + 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 상세구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 미디어쿼리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 발표 및 검수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본 / CSS 애니메이션, 
+VOGUE PJ / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / CSS 애니메이션, 
+VOGUE PJ / 미디어쿼리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / jQuery 기본, 
+VOGUE PJ / SVG 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 + Vue.js 적용, 
+파일럿 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -686,6 +686,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,9 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1022,9 +1022,7 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1043,39 +1041,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1086,13 +1084,13 @@
         <v>11</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1113,14 +1111,14 @@
         <v>5</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K5" s="35"/>
     </row>
@@ -1142,16 +1140,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6" s="36">
         <v>44516</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K6" s="37"/>
     </row>
@@ -1174,16 +1172,16 @@
         <v>5</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7" s="26">
         <v>44525</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="K7" s="27"/>
     </row>
@@ -1205,19 +1203,19 @@
         <v>5</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" s="14">
         <v>44533</v>
       </c>
       <c r="I8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
@@ -1238,14 +1236,14 @@
         <v>5</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -1267,16 +1265,16 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H10" s="14">
         <v>44543</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1298,14 +1296,14 @@
         <v>4</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -1327,19 +1325,19 @@
         <v>1</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" s="14">
         <v>44557</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1351,30 +1349,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="B14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="B15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -638,9 +638,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,9 +650,6 @@
     <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,6 +703,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1022,7 +1022,9 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1041,39 +1043,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1094,127 +1096,127 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>44508</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>44512</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>5</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>44515</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>44519</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>44516</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="27">
         <v>44522</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="27">
         <v>44526</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="34">
         <v>44525</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>44529</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>44533</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="25">
         <v>44533</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1222,13 +1224,13 @@
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>44536</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>44540</v>
       </c>
       <c r="F9" s="12">
@@ -1251,13 +1253,13 @@
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>44543</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>44547</v>
       </c>
       <c r="F10" s="12">
@@ -1282,13 +1284,13 @@
       <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>44550</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>44553</v>
       </c>
       <c r="F11" s="12">
@@ -1311,20 +1313,20 @@
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>44557</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>44557</v>
       </c>
       <c r="F12" s="12">
         <f>DAYS360(C12,E12)+1</f>
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="14">
@@ -1349,30 +1351,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -199,19 +199,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>서브페이지구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 프론트엔드 웹 개발 2회차 주별 상세일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>※ 휴일: 성탄대체휴무(12/24금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크립트 코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -242,18 +234,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>메인구현 : 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 상세구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 미디어쿼리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>포트폴리오 발표 및 검수</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -275,6 +255,26 @@
   <si>
     <t>jQuery 응용 + Vue.js 적용, 
 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인설계 : 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인설계 : 세부사항기술</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 상세구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인+서브페이지구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오 JS코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,10 +704,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1029,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1044,7 +1050,7 @@
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -1120,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="33"/>
     </row>
@@ -1151,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="35"/>
     </row>
@@ -1179,75 +1185,75 @@
         <v>44525</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="27">
         <v>44529</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="27">
         <v>44533</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="34">
         <v>44533</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="36" t="s">
+      <c r="I8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>34</v>
+      <c r="J8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>44536</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>44540</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="21">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="J9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
       <c r="B10" s="10" t="s">
@@ -1273,10 +1279,10 @@
         <v>44543</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1302,10 +1308,10 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -1336,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1365,7 +1371,7 @@
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
       <c r="B15" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>

--- a/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
+++ b/000.커리큐럼/KITA-FED212_주단위상세일정.xlsx
@@ -683,6 +683,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,16 +713,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1049,39 +1049,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1209,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="38" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="34">
@@ -1221,70 +1221,70 @@
       <c r="J8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="27">
         <v>44536</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="27">
         <v>44540</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="29">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>44543</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>44547</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="21">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="25">
         <v>44543</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
       <c r="B11" s="10" t="s">
@@ -1357,30 +1357,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
